--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24034556824148</v>
+        <v>1.248266</v>
       </c>
       <c r="H2">
-        <v>1.24034556824148</v>
+        <v>3.744798</v>
       </c>
       <c r="I2">
-        <v>0.008690271165290434</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J2">
-        <v>0.008690271165290434</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26861134132393</v>
+        <v>1.446520666666667</v>
       </c>
       <c r="N2">
-        <v>1.26861134132393</v>
+        <v>4.339562</v>
       </c>
       <c r="O2">
-        <v>0.2250830757367886</v>
+        <v>0.2269546876364677</v>
       </c>
       <c r="P2">
-        <v>0.2250830757367886</v>
+        <v>0.2269546876364677</v>
       </c>
       <c r="Q2">
-        <v>1.573516455032016</v>
+        <v>1.805642566497333</v>
       </c>
       <c r="R2">
-        <v>1.573516455032016</v>
+        <v>16.250783098476</v>
       </c>
       <c r="S2">
-        <v>0.001956032962870297</v>
+        <v>0.001977695366580889</v>
       </c>
       <c r="T2">
-        <v>0.001956032962870297</v>
+        <v>0.00197769536658089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.24034556824148</v>
+        <v>1.248266</v>
       </c>
       <c r="H3">
-        <v>1.24034556824148</v>
+        <v>3.744798</v>
       </c>
       <c r="I3">
-        <v>0.008690271165290434</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J3">
-        <v>0.008690271165290434</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.36758026113773</v>
+        <v>4.543978333333333</v>
       </c>
       <c r="N3">
-        <v>4.36758026113773</v>
+        <v>13.631935</v>
       </c>
       <c r="O3">
-        <v>0.7749169242632113</v>
+        <v>0.7129363631181282</v>
       </c>
       <c r="P3">
-        <v>0.7749169242632113</v>
+        <v>0.7129363631181282</v>
       </c>
       <c r="Q3">
-        <v>5.417308820841149</v>
+        <v>5.672093658236666</v>
       </c>
       <c r="R3">
-        <v>5.417308820841149</v>
+        <v>51.04884292413</v>
       </c>
       <c r="S3">
-        <v>0.006734238202420136</v>
+        <v>0.006212565850431876</v>
       </c>
       <c r="T3">
-        <v>0.006734238202420136</v>
+        <v>0.006212565850431877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.551402637565</v>
+        <v>1.248266</v>
       </c>
       <c r="H4">
-        <v>103.551402637565</v>
+        <v>3.744798</v>
       </c>
       <c r="I4">
-        <v>0.7255153656431765</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J4">
-        <v>0.7255153656431765</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.26861134132393</v>
+        <v>0.383111</v>
       </c>
       <c r="N4">
-        <v>1.26861134132393</v>
+        <v>1.149333</v>
       </c>
       <c r="O4">
-        <v>0.2250830757367886</v>
+        <v>0.0601089492454041</v>
       </c>
       <c r="P4">
-        <v>0.2250830757367886</v>
+        <v>0.0601089492454041</v>
       </c>
       <c r="Q4">
-        <v>131.3664837960157</v>
+        <v>0.478224435526</v>
       </c>
       <c r="R4">
-        <v>131.3664837960157</v>
+        <v>4.304019919734</v>
       </c>
       <c r="S4">
-        <v>0.163301229993267</v>
+        <v>0.000523792619798614</v>
       </c>
       <c r="T4">
-        <v>0.163301229993267</v>
+        <v>0.0005237926197986142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.551402637565</v>
+        <v>103.907654</v>
       </c>
       <c r="H5">
-        <v>103.551402637565</v>
+        <v>311.722962</v>
       </c>
       <c r="I5">
-        <v>0.7255153656431765</v>
+        <v>0.7253717484997341</v>
       </c>
       <c r="J5">
-        <v>0.7255153656431765</v>
+        <v>0.7253717484997342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.36758026113773</v>
+        <v>1.446520666666667</v>
       </c>
       <c r="N5">
-        <v>4.36758026113773</v>
+        <v>4.339562</v>
       </c>
       <c r="O5">
-        <v>0.7749169242632113</v>
+        <v>0.2269546876364677</v>
       </c>
       <c r="P5">
-        <v>0.7749169242632113</v>
+        <v>0.2269546876364677</v>
       </c>
       <c r="Q5">
-        <v>452.2690621729544</v>
+        <v>150.3045689358493</v>
       </c>
       <c r="R5">
-        <v>452.2690621729544</v>
+        <v>1352.741120422644</v>
       </c>
       <c r="S5">
-        <v>0.5622141356499095</v>
+        <v>0.1646265186010755</v>
       </c>
       <c r="T5">
-        <v>0.5622141356499095</v>
+        <v>0.1646265186010755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.9363145496469</v>
+        <v>103.907654</v>
       </c>
       <c r="H6">
-        <v>37.9363145496469</v>
+        <v>311.722962</v>
       </c>
       <c r="I6">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997341</v>
       </c>
       <c r="J6">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26861134132393</v>
+        <v>4.543978333333333</v>
       </c>
       <c r="N6">
-        <v>1.26861134132393</v>
+        <v>13.631935</v>
       </c>
       <c r="O6">
-        <v>0.2250830757367886</v>
+        <v>0.7129363631181282</v>
       </c>
       <c r="P6">
-        <v>0.2250830757367886</v>
+        <v>0.7129363631181282</v>
       </c>
       <c r="Q6">
-        <v>48.12643888571407</v>
+        <v>472.1541284434966</v>
       </c>
       <c r="R6">
-        <v>48.12643888571407</v>
+        <v>4249.38715599147</v>
       </c>
       <c r="S6">
-        <v>0.05982581278065135</v>
+        <v>0.517143896284038</v>
       </c>
       <c r="T6">
-        <v>0.05982581278065135</v>
+        <v>0.5171438962840381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>103.907654</v>
+      </c>
+      <c r="H7">
+        <v>311.722962</v>
+      </c>
+      <c r="I7">
+        <v>0.7253717484997341</v>
+      </c>
+      <c r="J7">
+        <v>0.7253717484997342</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.383111</v>
+      </c>
+      <c r="N7">
+        <v>1.149333</v>
+      </c>
+      <c r="O7">
+        <v>0.0601089492454041</v>
+      </c>
+      <c r="P7">
+        <v>0.0601089492454041</v>
+      </c>
+      <c r="Q7">
+        <v>39.808165231594</v>
+      </c>
+      <c r="R7">
+        <v>358.273487084346</v>
+      </c>
+      <c r="S7">
+        <v>0.04360133361462054</v>
+      </c>
+      <c r="T7">
+        <v>0.04360133361462055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>38.091531</v>
+      </c>
+      <c r="H8">
+        <v>114.274593</v>
+      </c>
+      <c r="I8">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J8">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.446520666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.339562</v>
+      </c>
+      <c r="O8">
+        <v>0.2269546876364677</v>
+      </c>
+      <c r="P8">
+        <v>0.2269546876364677</v>
+      </c>
+      <c r="Q8">
+        <v>55.100186816474</v>
+      </c>
+      <c r="R8">
+        <v>495.901681348266</v>
+      </c>
+      <c r="S8">
+        <v>0.06035047366881122</v>
+      </c>
+      <c r="T8">
+        <v>0.06035047366881122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>37.9363145496469</v>
-      </c>
-      <c r="H7">
-        <v>37.9363145496469</v>
-      </c>
-      <c r="I7">
-        <v>0.2657943631915331</v>
-      </c>
-      <c r="J7">
-        <v>0.2657943631915331</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.36758026113773</v>
-      </c>
-      <c r="N7">
-        <v>4.36758026113773</v>
-      </c>
-      <c r="O7">
-        <v>0.7749169242632113</v>
-      </c>
-      <c r="P7">
-        <v>0.7749169242632113</v>
-      </c>
-      <c r="Q7">
-        <v>165.6898986073499</v>
-      </c>
-      <c r="R7">
-        <v>165.6898986073499</v>
-      </c>
-      <c r="S7">
-        <v>0.2059685504108817</v>
-      </c>
-      <c r="T7">
-        <v>0.2059685504108817</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.091531</v>
+      </c>
+      <c r="H9">
+        <v>114.274593</v>
+      </c>
+      <c r="I9">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J9">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.543978333333333</v>
+      </c>
+      <c r="N9">
+        <v>13.631935</v>
+      </c>
+      <c r="O9">
+        <v>0.7129363631181282</v>
+      </c>
+      <c r="P9">
+        <v>0.7129363631181282</v>
+      </c>
+      <c r="Q9">
+        <v>173.087091547495</v>
+      </c>
+      <c r="R9">
+        <v>1557.783823927455</v>
+      </c>
+      <c r="S9">
+        <v>0.1895799009836583</v>
+      </c>
+      <c r="T9">
+        <v>0.1895799009836583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.091531</v>
+      </c>
+      <c r="H10">
+        <v>114.274593</v>
+      </c>
+      <c r="I10">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J10">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.383111</v>
+      </c>
+      <c r="N10">
+        <v>1.149333</v>
+      </c>
+      <c r="O10">
+        <v>0.0601089492454041</v>
+      </c>
+      <c r="P10">
+        <v>0.0601089492454041</v>
+      </c>
+      <c r="Q10">
+        <v>14.593284532941</v>
+      </c>
+      <c r="R10">
+        <v>131.339560796469</v>
+      </c>
+      <c r="S10">
+        <v>0.01598382301098494</v>
+      </c>
+      <c r="T10">
+        <v>0.01598382301098494</v>
       </c>
     </row>
   </sheetData>
